--- a/Resource/数据分析.xlsx
+++ b/Resource/数据分析.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17175" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="17172" windowHeight="6432" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KMP" sheetId="2" r:id="rId1"/>
     <sheet name="数独分析" sheetId="1" r:id="rId2"/>
     <sheet name="01背包" sheetId="3" r:id="rId3"/>
+    <sheet name="钢条切割" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +88,30 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1, 5, 8, 16, 10, 17, 17, 20, 24, 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Y1]1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Y5]5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Y=8]8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Y16]16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Y10,N16+1]17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -509,6 +535,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,24 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,9 +1349,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="18" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="18" width="3.77734375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1520,9 +1546,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="25" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="25" width="3.77734375" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1961,64 +1987,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="9" width="17.25" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="9" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="28">
-        <v>0</v>
-      </c>
-      <c r="E1" s="29">
-        <v>1</v>
-      </c>
-      <c r="F1" s="29">
+      <c r="D1" s="27">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28">
         <v>2</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="28">
         <v>3</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="28">
         <v>4</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="28">
         <v>5</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="48" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1">
       <c r="A3" s="21">
@@ -2030,22 +2056,22 @@
       <c r="C3" s="22">
         <v>0</v>
       </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
         <v>3</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="23">
         <v>3</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="23">
         <v>3</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="23">
         <v>3</v>
       </c>
     </row>
@@ -2059,22 +2085,22 @@
       <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2088,22 +2114,22 @@
       <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2117,36 +2143,41 @@
       <c r="C6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:15" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="D8" s="32" t="s">
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="21.75" customHeight="1">
+      <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -2157,15 +2188,155 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="12" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24">
+        <v>4</v>
+      </c>
+      <c r="G2" s="24">
+        <v>5</v>
+      </c>
+      <c r="H2" s="24">
+        <v>6</v>
+      </c>
+      <c r="I2" s="24">
+        <v>7</v>
+      </c>
+      <c r="J2" s="24">
+        <v>8</v>
+      </c>
+      <c r="K2" s="24">
+        <v>9</v>
+      </c>
+      <c r="L2" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resource/数据分析.xlsx
+++ b/Resource/数据分析.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17172" windowHeight="6432" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="17175" windowHeight="6435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KMP" sheetId="2" r:id="rId1"/>
     <sheet name="数独分析" sheetId="1" r:id="rId2"/>
     <sheet name="01背包" sheetId="3" r:id="rId3"/>
     <sheet name="钢条切割" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="最大公共子序列" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>[Y10,N16+1]17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,9 +1361,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="18" width="3.77734375" style="1" customWidth="1"/>
+    <col min="1" max="18" width="3.75" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1546,9 +1558,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="25" width="3.77734375" style="1" customWidth="1"/>
+    <col min="1" max="25" width="3.75" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1991,11 +2003,11 @@
       <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="9" width="17.21875" customWidth="1"/>
+    <col min="1" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1">
@@ -2198,17 +2210,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="12" width="17" customWidth="1"/>
@@ -2276,51 +2288,6 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2330,12 +2297,562 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="20" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>IF(C$1=$A3, B2+1, MAX(C2,B2,B3))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:G7" si="0">IF(D$1=$A3, C2+1, MAX(D2,C2,C3))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>IF(K$1=$I3, J2+1, MAX(K2,J2,J3))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:M5" si="1">IF(L$1=$I3, K2+1, MAX(L2,K2,K3))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C7" si="2">IF(C$1=$A4, B3+1, MAX(C3,B3,B4))</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K5" si="3">IF(K$1=$I4, J3+1, MAX(K3,J3,J4))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resource/数据分析.xlsx
+++ b/Resource/数据分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17175" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="17172" windowHeight="6432" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KMP" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="01背包" sheetId="3" r:id="rId3"/>
     <sheet name="钢条切割" sheetId="4" r:id="rId4"/>
     <sheet name="最大公共子序列" sheetId="5" r:id="rId5"/>
+    <sheet name="完全背包" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,22 @@
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -553,18 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,6 +581,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,9 +1378,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="18" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="18" width="3.77734375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1558,9 +1575,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="25" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="25" width="3.77734375" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2000,63 +2017,63 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="9" width="17.25" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="9" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="27">
-        <v>0</v>
-      </c>
-      <c r="E1" s="28">
-        <v>1</v>
-      </c>
-      <c r="F1" s="28">
-        <v>2</v>
-      </c>
-      <c r="G1" s="28">
-        <v>3</v>
-      </c>
-      <c r="H1" s="28">
+      <c r="D1" s="31">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32">
+        <v>1</v>
+      </c>
+      <c r="F1" s="32">
+        <v>2</v>
+      </c>
+      <c r="G1" s="32">
+        <v>3</v>
+      </c>
+      <c r="H1" s="32">
         <v>4</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="32">
         <v>5</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="48" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1">
       <c r="A3" s="21">
@@ -2178,18 +2195,13 @@
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:15" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -2200,6 +2212,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2220,7 +2237,7 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="12" width="17" customWidth="1"/>
@@ -2297,18 +2314,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="20" width="3.5" customWidth="1"/>
+    <col min="1" max="29" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.75" customHeight="1">
+    <row r="1" spans="1:29" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -2341,12 +2358,41 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="21.75" customHeight="1">
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="21.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -2382,13 +2428,44 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" ht="21.75" customHeight="1">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" ht="21.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,14 +2512,57 @@
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="21.75" customHeight="1">
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>IF(Q$1=$O3, P2+1, MAX(Q2,P2,P3))</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:Z3" si="2">IF(R$1=$O3, Q2+1, MAX(R2,Q2,Q3))</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="21.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C7" si="2">IF(C$1=$A4, B3+1, MAX(C3,B3,B4))</f>
+        <f t="shared" ref="C4:C7" si="3">IF(C$1=$A4, B3+1, MAX(C3,B3,B4))</f>
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -2477,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K5" si="3">IF(K$1=$I4, J3+1, MAX(K3,J3,J4))</f>
+        <f t="shared" ref="K4:K5" si="4">IF(K$1=$I4, J3+1, MAX(K3,J3,J4))</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -2489,14 +2609,57 @@
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q11" si="5">IF(Q$1=$O4, P3+1, MAX(Q3,P3,P4))</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R11" si="6">IF(R$1=$O4, Q3+1, MAX(R3,Q3,Q4))</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S11" si="7">IF(S$1=$O4, R3+1, MAX(S3,R3,R4))</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T11" si="8">IF(T$1=$O4, S3+1, MAX(T3,S3,S4))</f>
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U11" si="9">IF(U$1=$O4, T3+1, MAX(U3,T3,T4))</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V11" si="10">IF(V$1=$O4, U3+1, MAX(V3,U3,U4))</f>
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4:W11" si="11">IF(W$1=$O4, V3+1, MAX(W3,V3,V4))</f>
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" ref="X4:X11" si="12">IF(X$1=$O4, W3+1, MAX(X3,W3,W4))</f>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y11" si="13">IF(Y$1=$O4, X3+1, MAX(Y3,X3,X4))</f>
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4:Z11" si="14">IF(Z$1=$O4, Y3+1, MAX(Z3,Y3,Y4))</f>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="21.75" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2504,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -2531,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
@@ -2543,14 +2706,57 @@
         <v>0</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="21.75" customHeight="1">
+      <c r="O5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="21.75" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2558,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -2584,14 +2790,57 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" ht="21.75" customHeight="1">
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="21.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -2625,14 +2874,57 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="25.5" customHeight="1">
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="21.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2647,14 +2939,57 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="21.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2669,14 +3004,57 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="O9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="21.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2691,14 +3069,57 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="21.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2719,8 +3140,17 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="21.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2740,9 +3170,28 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="T12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="21.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2763,8 +3212,17 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="21.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2785,8 +3243,17 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="21.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2807,8 +3274,17 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="21.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2829,8 +3305,17 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" ht="21.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2851,6 +3336,683 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="21.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="5.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="1" customWidth="1"/>
+    <col min="5" max="16" width="5.21875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9</v>
+      </c>
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resource/数据分析.xlsx
+++ b/Resource/数据分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17172" windowHeight="6432" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="17175" windowHeight="6435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KMP" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="钢条切割" sheetId="4" r:id="rId4"/>
     <sheet name="最大公共子序列" sheetId="5" r:id="rId5"/>
     <sheet name="完全背包" sheetId="6" r:id="rId6"/>
+    <sheet name="最长递增子序列" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -570,6 +571,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,18 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,9 +1379,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="18" width="3.77734375" style="1" customWidth="1"/>
+    <col min="1" max="18" width="3.75" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1575,9 +1576,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="25" width="3.77734375" style="1" customWidth="1"/>
+    <col min="1" max="25" width="3.75" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2020,60 +2021,60 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="9" width="17.21875" customWidth="1"/>
+    <col min="1" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="31">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32">
-        <v>1</v>
-      </c>
-      <c r="F1" s="32">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32">
-        <v>3</v>
-      </c>
-      <c r="H1" s="32">
+      <c r="D1" s="27">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28">
         <v>4</v>
       </c>
-      <c r="I1" s="32">
+      <c r="I1" s="28">
         <v>5</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="48" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1">
       <c r="A3" s="21">
@@ -2195,13 +2196,18 @@
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:15" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -2212,11 +2218,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2237,7 +2238,7 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="12" width="17" customWidth="1"/>
@@ -2320,9 +2321,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="29" width="3.44140625" customWidth="1"/>
+    <col min="1" max="29" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21.75" customHeight="1">
@@ -2616,43 +2617,43 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q11" si="5">IF(Q$1=$O4, P3+1, MAX(Q3,P3,P4))</f>
+        <f t="shared" ref="Q4:Q10" si="5">IF(Q$1=$O4, P3+1, MAX(Q3,P3,P4))</f>
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R11" si="6">IF(R$1=$O4, Q3+1, MAX(R3,Q3,Q4))</f>
+        <f t="shared" ref="R4:R10" si="6">IF(R$1=$O4, Q3+1, MAX(R3,Q3,Q4))</f>
         <v>1</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S11" si="7">IF(S$1=$O4, R3+1, MAX(S3,R3,R4))</f>
+        <f t="shared" ref="S4:S10" si="7">IF(S$1=$O4, R3+1, MAX(S3,R3,R4))</f>
         <v>2</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T11" si="8">IF(T$1=$O4, S3+1, MAX(T3,S3,S4))</f>
+        <f t="shared" ref="T4:T10" si="8">IF(T$1=$O4, S3+1, MAX(T3,S3,S4))</f>
         <v>2</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U11" si="9">IF(U$1=$O4, T3+1, MAX(U3,T3,T4))</f>
+        <f t="shared" ref="U4:U10" si="9">IF(U$1=$O4, T3+1, MAX(U3,T3,T4))</f>
         <v>2</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V11" si="10">IF(V$1=$O4, U3+1, MAX(V3,U3,U4))</f>
+        <f t="shared" ref="V4:V10" si="10">IF(V$1=$O4, U3+1, MAX(V3,U3,U4))</f>
         <v>2</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" ref="W4:W11" si="11">IF(W$1=$O4, V3+1, MAX(W3,V3,V4))</f>
+        <f t="shared" ref="W4:W10" si="11">IF(W$1=$O4, V3+1, MAX(W3,V3,V4))</f>
         <v>2</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X11" si="12">IF(X$1=$O4, W3+1, MAX(X3,W3,W4))</f>
+        <f t="shared" ref="X4:X10" si="12">IF(X$1=$O4, W3+1, MAX(X3,W3,W4))</f>
         <v>2</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y11" si="13">IF(Y$1=$O4, X3+1, MAX(Y3,X3,X4))</f>
+        <f t="shared" ref="Y4:Y10" si="13">IF(Y$1=$O4, X3+1, MAX(Y3,X3,X4))</f>
         <v>2</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z11" si="14">IF(Z$1=$O4, Y3+1, MAX(Z3,Y3,Y4))</f>
+        <f t="shared" ref="Z4:Z10" si="14">IF(Z$1=$O4, Y3+1, MAX(Z3,Y3,Y4))</f>
         <v>2</v>
       </c>
       <c r="AA4" s="1"/>
@@ -3605,15 +3606,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="5.21875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="5.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="1" customWidth="1"/>
-    <col min="5" max="16" width="5.21875" style="1" customWidth="1"/>
+    <col min="5" max="16" width="5.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -4012,6 +4013,135 @@
       </c>
       <c r="P12" s="1">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
